--- a/biology/Botanique/Moelle_(botanique)/Moelle_(botanique).xlsx
+++ b/biology/Botanique/Moelle_(botanique)/Moelle_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, la moelle est un tissu au centre de la tige des plantes. Il s'agit d'un parenchyme, spongieux et lacunaire, jouant un rôle dans le stockage et le transport des éléments nutritifs dans la plante. Composant du cylindre central, il entoure les tissus conducteurs des sèves (xylème et phloème).
 Généralement blanche ou de couleur claire quand elle est nouvellement formée, elle prend en vieillissant une couleur brune plus foncée par accumulation de tanins sombres.
@@ -516,9 +528,11 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sagou est la moelle d'un palmier, le sagoutier (Metroxylon sagu). Bien qu'elle soit très toxique pour les animaux à l'état brut, c'est une ressource alimentaire importante pour l'homme en Mélanésie et en Micronésie en raison de sa teneur en fécule et de sa disponibilité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sagou est la moelle d'un palmier, le sagoutier (Metroxylon sagu). Bien qu'elle soit très toxique pour les animaux à l'état brut, c'est une ressource alimentaire importante pour l'homme en Mélanésie et en Micronésie en raison de sa teneur en fécule et de sa disponibilité.
 L'amidon est extrait de la moelle du sagoutier par un grand lessivage qui élimine une quantité suffisante des toxines et permet ainsi de consommer seulement l'amidon. Après ce traitement, la forme de l'amidon est similaire au tapioca.
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Autres usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La moelle est entre autres utilisée pour confectionner les casques coloniaux.
 </t>
